--- a/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/3. 조건부 서식/임직원 현황표.xlsx
+++ b/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/3. 조건부 서식/임직원 현황표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilbut\Desktop\예제\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\부록_엑셀_이럴땐이렇게\1. 입력수정\3. 조건부 서식\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAFDF65-E8F0-4288-AEC6-DF8F0D482035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9743C5F-E559-4025-B6AD-BFA43F6B0AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22188" yWindow="3132" windowWidth="21180" windowHeight="16692" xr2:uid="{DF23DFDE-6DBB-41F9-A01F-74A6964558C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{DF23DFDE-6DBB-41F9-A01F-74A6964558C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="anscount" hidden="1">1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -451,7 +451,15 @@
     <cellStyle name="표준 14" xfId="2" xr:uid="{CB3EDFB7-4755-45E5-AE98-340C06105EB6}"/>
     <cellStyle name="표준 2 2" xfId="1" xr:uid="{9FE22168-9571-4D32-BCE1-36913586CDCA}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -784,24 +792,24 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I2"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" customWidth="1"/>
-    <col min="6" max="6" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.8984375" customWidth="1"/>
-    <col min="8" max="8" width="12.19921875" customWidth="1"/>
-    <col min="9" max="9" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
         <v>78</v>
       </c>
@@ -813,7 +821,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H4" s="7" t="s">
         <v>77</v>
       </c>
@@ -821,8 +829,8 @@
         <v>47547</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>76</v>
       </c>
@@ -848,7 +856,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>1</v>
       </c>
@@ -872,7 +880,7 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -896,7 +904,7 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>3</v>
       </c>
@@ -920,7 +928,7 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>4</v>
       </c>
@@ -944,7 +952,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>5</v>
       </c>
@@ -968,7 +976,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>6</v>
       </c>
@@ -992,7 +1000,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>7</v>
       </c>
@@ -1016,7 +1024,7 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>8</v>
       </c>
@@ -1040,7 +1048,7 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>9</v>
       </c>
@@ -1064,7 +1072,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>10</v>
       </c>
@@ -1088,7 +1096,7 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>11</v>
       </c>
@@ -1112,7 +1120,7 @@
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>12</v>
       </c>
@@ -1136,7 +1144,7 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>13</v>
       </c>
@@ -1160,7 +1168,7 @@
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>14</v>
       </c>
@@ -1184,7 +1192,7 @@
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>15</v>
       </c>
@@ -1208,7 +1216,7 @@
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>16</v>
       </c>
@@ -1232,7 +1240,7 @@
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>17</v>
       </c>
@@ -1256,7 +1264,7 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>18</v>
       </c>
@@ -1280,7 +1288,7 @@
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>19</v>
       </c>
@@ -1304,7 +1312,7 @@
       </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>20</v>
       </c>
@@ -1333,6 +1341,11 @@
     <mergeCell ref="B2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B7:I26">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>